--- a/script_creater/1.CDD_5G mmWave 8CC_HNI_B7_v07.xlsx
+++ b/script_creater/1.CDD_5G mmWave 8CC_HNI_B7_v07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\ephucle\tool_script\python\pythonlab\script_creater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B6135-673D-4879-A411-9CFE9FBFDB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57271EC7-8B2A-4623-AF0A-20110661106C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="891" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="891" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="47" r:id="rId1"/>
@@ -1212,15 +1212,6 @@
     <t>includeInSIB</t>
   </si>
   <si>
-    <t xml:space="preserve">nRCellRef </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nRCellRelationId </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nRFreqRelationRef </t>
-  </si>
-  <si>
     <t>sCellCandidate</t>
   </si>
   <si>
@@ -1799,6 +1790,15 @@
   </si>
   <si>
     <t>10.170.66.25</t>
+  </si>
+  <si>
+    <t>nRCellRef</t>
+  </si>
+  <si>
+    <t>nRCellRelationId</t>
+  </si>
+  <si>
+    <t>nRFreqRelationRef</t>
   </si>
 </sst>
 </file>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="137" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B3" s="138">
         <v>44333</v>
@@ -3298,14 +3298,14 @@
     </row>
     <row r="4" spans="1:4" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="137" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B4" s="138">
         <v>44333</v>
       </c>
       <c r="C4" s="139"/>
       <c r="D4" s="140" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="121" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B2" s="121">
         <v>3758</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B3" s="121">
         <v>4282</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B4" s="121">
         <v>4325</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B5" s="121">
         <v>4335</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B6" s="121">
         <v>4466</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B7" s="121">
         <v>4467</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="121" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B8" s="121">
         <v>4468</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B9" s="121">
         <v>4469</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="121" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B10" s="121">
         <v>4539</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="121" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B11" s="121">
         <v>4585</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="121" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B12" s="121">
         <v>4654</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="121" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B13" s="121">
         <v>915</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2" s="129">
         <v>1</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2" s="129" t="s">
         <v>164</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B3" s="129" t="s">
         <v>165</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>166</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B5" s="129" t="s">
         <v>167</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B6" s="129" t="s">
         <v>168</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B7" s="129" t="s">
         <v>169</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B8" s="129" t="s">
         <v>170</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B9" s="129" t="s">
         <v>171</v>
@@ -3858,7 +3858,7 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C2" s="82">
         <v>2056669</v>
@@ -3974,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F2" s="81">
         <v>23</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C3" s="82">
         <v>2058335</v>
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F3" s="81">
         <v>23</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C4" s="82">
         <v>2060001</v>
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F4" s="81">
         <v>23</v>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C5" s="82">
         <v>2061667</v>
@@ -4157,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F5" s="81">
         <v>23</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C6" s="82">
         <v>2063333</v>
@@ -4218,7 +4218,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F6" s="81">
         <v>23</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C7" s="82">
         <v>2064999</v>
@@ -4279,7 +4279,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F7" s="81">
         <v>23</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C8" s="82">
         <v>2066665</v>
@@ -4340,7 +4340,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F8" s="81">
         <v>23</v>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C9" s="82">
         <v>2068331</v>
@@ -4401,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9" s="81">
         <v>23</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C10" s="26">
         <v>2058335</v>
@@ -4462,7 +4462,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F10" s="86">
         <v>23</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C11" s="85">
         <v>2056669</v>
@@ -4523,7 +4523,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F11" s="86">
         <v>23</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C12" s="85">
         <v>2060001</v>
@@ -4584,7 +4584,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F12" s="86">
         <v>23</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C13" s="85">
         <v>2061667</v>
@@ -4645,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F13" s="86">
         <v>23</v>
@@ -4694,10 +4694,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C14" s="85">
         <v>2063333</v>
@@ -4706,7 +4706,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F14" s="86">
         <v>23</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C15" s="85">
         <v>2064999</v>
@@ -4767,7 +4767,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F15" s="86">
         <v>23</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C16" s="85">
         <v>2066665</v>
@@ -4828,7 +4828,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16" s="86">
         <v>23</v>
@@ -4877,10 +4877,10 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C17" s="85">
         <v>2068331</v>
@@ -4889,7 +4889,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F17" s="86">
         <v>23</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C18" s="82">
         <v>2060001</v>
@@ -4950,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F18" s="81">
         <v>23</v>
@@ -4999,10 +4999,10 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C19" s="84">
         <v>2056669</v>
@@ -5011,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F19" s="81">
         <v>23</v>
@@ -5060,10 +5060,10 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C20" s="84">
         <v>2058335</v>
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F20" s="81">
         <v>23</v>
@@ -5121,10 +5121,10 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C21" s="84">
         <v>2061667</v>
@@ -5133,7 +5133,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F21" s="81">
         <v>23</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C22" s="84">
         <v>2063333</v>
@@ -5194,7 +5194,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F22" s="81">
         <v>23</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C23" s="84">
         <v>2064999</v>
@@ -5255,7 +5255,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F23" s="81">
         <v>23</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C24" s="84">
         <v>2066665</v>
@@ -5316,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F24" s="81">
         <v>23</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>430</v>
       </c>
       <c r="C25" s="84">
         <v>2068331</v>
@@ -5377,7 +5377,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F25" s="81">
         <v>23</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C26" s="26">
         <v>2061667</v>
@@ -5438,7 +5438,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F26" s="86">
         <v>23</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C27" s="85">
         <v>2056669</v>
@@ -5499,7 +5499,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F27" s="86">
         <v>23</v>
@@ -5548,10 +5548,10 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C28" s="85">
         <v>2058335</v>
@@ -5560,7 +5560,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F28" s="86">
         <v>23</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C29" s="85">
         <v>2060001</v>
@@ -5621,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F29" s="86">
         <v>23</v>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C30" s="85">
         <v>2063333</v>
@@ -5682,7 +5682,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F30" s="86">
         <v>23</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C31" s="85">
         <v>2064999</v>
@@ -5743,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F31" s="86">
         <v>23</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C32" s="85">
         <v>2066665</v>
@@ -5804,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F32" s="86">
         <v>23</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C33" s="85">
         <v>2068331</v>
@@ -5865,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F33" s="86">
         <v>23</v>
@@ -5914,10 +5914,10 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C34" s="82">
         <v>2063333</v>
@@ -5926,7 +5926,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F34" s="81">
         <v>23</v>
@@ -5975,10 +5975,10 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C35" s="84">
         <v>2056669</v>
@@ -5987,7 +5987,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F35" s="81">
         <v>23</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C36" s="84">
         <v>2058335</v>
@@ -6048,7 +6048,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F36" s="81">
         <v>23</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C37" s="84">
         <v>2060001</v>
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F37" s="81">
         <v>23</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C38" s="84">
         <v>2061667</v>
@@ -6170,7 +6170,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F38" s="81">
         <v>23</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C39" s="84">
         <v>2064999</v>
@@ -6231,7 +6231,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F39" s="81">
         <v>23</v>
@@ -6280,10 +6280,10 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C40" s="84">
         <v>2066665</v>
@@ -6292,7 +6292,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F40" s="81">
         <v>23</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C41" s="84">
         <v>2068331</v>
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="81" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F41" s="81">
         <v>23</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C42" s="26">
         <v>2064999</v>
@@ -6414,7 +6414,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F42" s="86">
         <v>23</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C43" s="85">
         <v>2056669</v>
@@ -6475,7 +6475,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F43" s="86">
         <v>23</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C44" s="85">
         <v>2058335</v>
@@ -6536,7 +6536,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F44" s="86">
         <v>23</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C45" s="85">
         <v>2060001</v>
@@ -6597,7 +6597,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F45" s="86">
         <v>23</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C46" s="85">
         <v>2061667</v>
@@ -6658,7 +6658,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F46" s="86">
         <v>23</v>
@@ -6707,10 +6707,10 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C47" s="85">
         <v>2063333</v>
@@ -6719,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F47" s="86">
         <v>23</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C48" s="85">
         <v>2066665</v>
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F48" s="86">
         <v>23</v>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C49" s="85">
         <v>2068331</v>
@@ -6841,7 +6841,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F49" s="86">
         <v>23</v>
@@ -6890,10 +6890,10 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C50" s="82">
         <v>2066665</v>
@@ -6902,7 +6902,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F50" s="81">
         <v>23</v>
@@ -6951,10 +6951,10 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C51" s="84">
         <v>2056669</v>
@@ -6963,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F51" s="81">
         <v>23</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C52" s="84">
         <v>2058335</v>
@@ -7024,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F52" s="81">
         <v>23</v>
@@ -7073,10 +7073,10 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C53" s="84">
         <v>2060001</v>
@@ -7085,7 +7085,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F53" s="81">
         <v>23</v>
@@ -7134,10 +7134,10 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B54" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C54" s="84">
         <v>2061667</v>
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="81" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F54" s="81">
         <v>23</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C55" s="84">
         <v>2063333</v>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F55" s="81">
         <v>23</v>
@@ -7256,10 +7256,10 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B56" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C56" s="84">
         <v>2064999</v>
@@ -7268,7 +7268,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="81" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F56" s="81">
         <v>23</v>
@@ -7317,10 +7317,10 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B57" s="81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C57" s="84">
         <v>2068331</v>
@@ -7329,7 +7329,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="81" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F57" s="81">
         <v>23</v>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C58" s="26">
         <v>2068331</v>
@@ -7390,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F58" s="86">
         <v>23</v>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C59" s="85">
         <v>2056669</v>
@@ -7451,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F59" s="86">
         <v>23</v>
@@ -7500,10 +7500,10 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C60" s="85">
         <v>2058335</v>
@@ -7512,7 +7512,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F60" s="86">
         <v>23</v>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C61" s="85">
         <v>2060001</v>
@@ -7573,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F61" s="86">
         <v>23</v>
@@ -7622,10 +7622,10 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C62" s="85">
         <v>2061667</v>
@@ -7634,7 +7634,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F62" s="86">
         <v>23</v>
@@ -7683,10 +7683,10 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C63" s="85">
         <v>2063333</v>
@@ -7695,7 +7695,7 @@
         <v>7</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F63" s="86">
         <v>23</v>
@@ -7744,10 +7744,10 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C64" s="85">
         <v>2064999</v>
@@ -7756,7 +7756,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F64" s="86">
         <v>23</v>
@@ -7805,10 +7805,10 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C65" s="85">
         <v>2066665</v>
@@ -7817,7 +7817,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F65" s="86">
         <v>23</v>
@@ -8024,11 +8024,11 @@
   </sheetPr>
   <dimension ref="A1:Q2625"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8084,39 +8084,39 @@
         <v>212</v>
       </c>
       <c r="L1" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="M1" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>359</v>
-      </c>
       <c r="P1" s="173" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="Q1" s="173" t="s">
-        <v>358</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F2" s="77">
         <v>2058335</v>
@@ -8141,7 +8141,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N2" s="76" t="str">
         <f t="shared" ref="N2:N33" si="1">CONCATENATE(P2,A2,Q2,F2)</f>
@@ -8151,27 +8151,27 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F3" s="77">
         <v>2060001</v>
@@ -8196,7 +8196,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N3" s="76" t="str">
         <f t="shared" si="1"/>
@@ -8206,27 +8206,27 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>428</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>431</v>
-      </c>
       <c r="C4" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F4" s="77">
         <v>2061667</v>
@@ -8251,7 +8251,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M4" s="76" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N4" s="76" t="str">
         <f t="shared" si="1"/>
@@ -8261,27 +8261,27 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F5" s="77">
         <v>2063333</v>
@@ -8306,7 +8306,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M5" s="76" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N5" s="76" t="str">
         <f t="shared" si="1"/>
@@ -8316,27 +8316,27 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F6" s="77">
         <v>2064999</v>
@@ -8361,7 +8361,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M6" s="76" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N6" s="76" t="str">
         <f t="shared" si="1"/>
@@ -8371,27 +8371,27 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F7" s="77">
         <v>2066665</v>
@@ -8416,7 +8416,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N7" s="76" t="str">
         <f t="shared" si="1"/>
@@ -8426,27 +8426,27 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F8" s="77">
         <v>2068331</v>
@@ -8471,7 +8471,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M8" s="76" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N8" s="76" t="str">
         <f t="shared" si="1"/>
@@ -8481,27 +8481,27 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F9" s="79">
         <v>2056669</v>
@@ -8526,7 +8526,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M9" s="67" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N9" s="67" t="str">
         <f t="shared" si="1"/>
@@ -8536,27 +8536,27 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F10" s="79">
         <v>2060001</v>
@@ -8581,7 +8581,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M10" s="73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N10" s="73" t="str">
         <f t="shared" si="1"/>
@@ -8591,27 +8591,27 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F11" s="79">
         <v>2061667</v>
@@ -8636,7 +8636,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M11" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N11" s="73" t="str">
         <f t="shared" si="1"/>
@@ -8646,27 +8646,27 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>432</v>
-      </c>
       <c r="C12" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F12" s="79">
         <v>2063333</v>
@@ -8691,7 +8691,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M12" s="73" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N12" s="73" t="str">
         <f t="shared" si="1"/>
@@ -8701,27 +8701,27 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F13" s="79">
         <v>2064999</v>
@@ -8746,7 +8746,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M13" s="73" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N13" s="73" t="str">
         <f t="shared" si="1"/>
@@ -8756,27 +8756,27 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F14" s="79">
         <v>2066665</v>
@@ -8801,7 +8801,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M14" s="73" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N14" s="73" t="str">
         <f t="shared" si="1"/>
@@ -8811,27 +8811,27 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F15" s="79">
         <v>2068331</v>
@@ -8856,7 +8856,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M15" s="73" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N15" s="73" t="str">
         <f t="shared" si="1"/>
@@ -8866,27 +8866,27 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C16" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F16" s="77">
         <v>2056669</v>
@@ -8911,7 +8911,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M16" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N16" s="77" t="str">
         <f t="shared" si="1"/>
@@ -8921,27 +8921,27 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C17" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F17" s="77">
         <v>2058335</v>
@@ -8966,7 +8966,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M17" s="77" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N17" s="77" t="str">
         <f t="shared" si="1"/>
@@ -8976,27 +8976,27 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C18" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F18" s="77">
         <v>2061667</v>
@@ -9021,7 +9021,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M18" s="77" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N18" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9031,27 +9031,27 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C19" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F19" s="77">
         <v>2063333</v>
@@ -9076,7 +9076,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M19" s="77" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N19" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9086,27 +9086,27 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>430</v>
       </c>
-      <c r="B20" s="78" t="s">
-        <v>433</v>
-      </c>
       <c r="C20" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F20" s="77">
         <v>2064999</v>
@@ -9131,7 +9131,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M20" s="77" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N20" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9141,27 +9141,27 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C21" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F21" s="77">
         <v>2066665</v>
@@ -9186,7 +9186,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M21" s="77" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N21" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9196,27 +9196,27 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C22" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E22" s="78" t="s">
         <v>427</v>
-      </c>
-      <c r="D22" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="F22" s="77">
         <v>2068331</v>
@@ -9241,7 +9241,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M22" s="77" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N22" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9251,27 +9251,27 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q22" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B23" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" s="73" t="s">
         <v>428</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>431</v>
       </c>
       <c r="F23" s="79">
         <v>2056669</v>
@@ -9296,7 +9296,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M23" s="79" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N23" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9306,27 +9306,27 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q23" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F24" s="79">
         <v>2058335</v>
@@ -9351,7 +9351,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M24" s="79" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N24" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9361,27 +9361,27 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q24" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F25" s="79">
         <v>2060001</v>
@@ -9406,7 +9406,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M25" s="79" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N25" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9416,27 +9416,27 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F26" s="79">
         <v>2063333</v>
@@ -9461,7 +9461,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M26" s="79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N26" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9471,27 +9471,27 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q26" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F27" s="79">
         <v>2064999</v>
@@ -9516,7 +9516,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M27" s="79" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N27" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9526,27 +9526,27 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q27" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="B28" s="73" t="s">
-        <v>434</v>
-      </c>
       <c r="C28" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F28" s="79">
         <v>2066665</v>
@@ -9571,7 +9571,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M28" s="79" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N28" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9581,27 +9581,27 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E29" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F29" s="79">
         <v>2068331</v>
@@ -9626,7 +9626,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M29" s="79" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N29" s="79" t="str">
         <f t="shared" si="1"/>
@@ -9636,27 +9636,27 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D30" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E30" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F30" s="77">
         <v>2056669</v>
@@ -9681,7 +9681,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M30" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N30" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9691,27 +9691,27 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q30" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B31" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" s="78" t="s">
         <v>429</v>
-      </c>
-      <c r="C31" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="D31" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>432</v>
       </c>
       <c r="F31" s="77">
         <v>2058335</v>
@@ -9736,7 +9736,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M31" s="77" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N31" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9746,27 +9746,27 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q31" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D32" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E32" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F32" s="77">
         <v>2060001</v>
@@ -9791,7 +9791,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M32" s="77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N32" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9801,27 +9801,27 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q32" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F33" s="77">
         <v>2061667</v>
@@ -9846,7 +9846,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M33" s="77" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N33" s="77" t="str">
         <f t="shared" si="1"/>
@@ -9856,27 +9856,27 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q33" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F34" s="77">
         <v>2064999</v>
@@ -9901,7 +9901,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M34" s="77" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N34" s="77" t="str">
         <f t="shared" ref="N34:N57" si="3">CONCATENATE(P34,A34,Q34,F34)</f>
@@ -9911,27 +9911,27 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q34" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E35" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F35" s="77">
         <v>2066665</v>
@@ -9956,7 +9956,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M35" s="77" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N35" s="77" t="str">
         <f t="shared" si="3"/>
@@ -9966,27 +9966,27 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q35" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="B36" s="78" t="s">
-        <v>435</v>
-      </c>
       <c r="C36" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F36" s="77">
         <v>2068331</v>
@@ -10011,7 +10011,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M36" s="77" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N36" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10021,27 +10021,27 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F37" s="79">
         <v>2056669</v>
@@ -10066,7 +10066,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M37" s="79" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N37" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10076,27 +10076,27 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q37" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F38" s="79">
         <v>2058335</v>
@@ -10121,7 +10121,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M38" s="79" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N38" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10131,27 +10131,27 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q38" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B39" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="E39" s="67" t="s">
         <v>430</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="E39" s="67" t="s">
-        <v>433</v>
       </c>
       <c r="F39" s="79">
         <v>2060001</v>
@@ -10176,7 +10176,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M39" s="79" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N39" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10186,27 +10186,27 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F40" s="79">
         <v>2061667</v>
@@ -10231,7 +10231,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M40" s="79" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N40" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10241,27 +10241,27 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q40" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F41" s="79">
         <v>2063333</v>
@@ -10286,7 +10286,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M41" s="79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N41" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10296,27 +10296,27 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q41" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D42" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F42" s="79">
         <v>2066665</v>
@@ -10341,7 +10341,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M42" s="79" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N42" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10351,27 +10351,27 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q42" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D43" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F43" s="79">
         <v>2068331</v>
@@ -10396,7 +10396,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M43" s="79" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N43" s="79" t="str">
         <f t="shared" si="3"/>
@@ -10406,27 +10406,27 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q43" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B44" s="78" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D44" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E44" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F44" s="77">
         <v>2056669</v>
@@ -10451,7 +10451,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M44" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N44" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10461,27 +10461,27 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B45" s="78" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C45" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E45" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F45" s="77">
         <v>2058335</v>
@@ -10506,7 +10506,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M45" s="77" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N45" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10516,27 +10516,27 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q45" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B46" s="78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E46" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F46" s="77">
         <v>2060001</v>
@@ -10561,7 +10561,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M46" s="77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N46" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10571,27 +10571,27 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q46" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B47" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="E47" s="78" t="s">
         <v>431</v>
-      </c>
-      <c r="C47" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>434</v>
       </c>
       <c r="F47" s="77">
         <v>2061667</v>
@@ -10616,7 +10616,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M47" s="77" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N47" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10626,27 +10626,27 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q47" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E48" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F48" s="77">
         <v>2063333</v>
@@ -10671,7 +10671,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M48" s="77" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N48" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10681,27 +10681,27 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q48" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E49" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F49" s="77">
         <v>2064999</v>
@@ -10726,7 +10726,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M49" s="77" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N49" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10736,27 +10736,27 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q49" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C50" s="78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E50" s="78" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F50" s="77">
         <v>2068331</v>
@@ -10781,7 +10781,7 @@
         <v>NRCellCU=gSG089498</v>
       </c>
       <c r="M50" s="77" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N50" s="77" t="str">
         <f t="shared" si="3"/>
@@ -10791,27 +10791,27 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q50" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B51" s="67" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F51" s="79">
         <v>2056669</v>
@@ -10836,7 +10836,7 @@
         <v>NRCellCU=gSG089491</v>
       </c>
       <c r="M51" s="80" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N51" s="80" t="str">
         <f t="shared" si="3"/>
@@ -10846,27 +10846,27 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q51" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B52" s="67" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D52" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F52" s="79">
         <v>2058335</v>
@@ -10891,7 +10891,7 @@
         <v>NRCellCU=gSG089492</v>
       </c>
       <c r="M52" s="80" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N52" s="80" t="str">
         <f t="shared" si="3"/>
@@ -10901,27 +10901,27 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q52" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D53" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F53" s="79">
         <v>2060001</v>
@@ -10946,7 +10946,7 @@
         <v>NRCellCU=gSG089493</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N53" s="80" t="str">
         <f t="shared" si="3"/>
@@ -10956,27 +10956,27 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q53" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B54" s="67" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D54" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F54" s="79">
         <v>2061667</v>
@@ -11001,7 +11001,7 @@
         <v>NRCellCU=gSG089494</v>
       </c>
       <c r="M54" s="80" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N54" s="80" t="str">
         <f t="shared" si="3"/>
@@ -11011,27 +11011,27 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q54" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B55" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="E55" s="67" t="s">
         <v>432</v>
-      </c>
-      <c r="C55" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="E55" s="67" t="s">
-        <v>435</v>
       </c>
       <c r="F55" s="79">
         <v>2063333</v>
@@ -11056,7 +11056,7 @@
         <v>NRCellCU=gSG089495</v>
       </c>
       <c r="M55" s="80" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N55" s="80" t="str">
         <f t="shared" si="3"/>
@@ -11066,27 +11066,27 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q55" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D56" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F56" s="79">
         <v>2064999</v>
@@ -11111,7 +11111,7 @@
         <v>NRCellCU=gSG089496</v>
       </c>
       <c r="M56" s="80" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N56" s="80" t="str">
         <f t="shared" si="3"/>
@@ -11121,27 +11121,27 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q56" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D57" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F57" s="79">
         <v>2066665</v>
@@ -11166,7 +11166,7 @@
         <v>NRCellCU=gSG089497</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N57" s="80" t="str">
         <f t="shared" si="3"/>
@@ -11176,10 +11176,10 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q57" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
@@ -54873,7 +54873,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="125">
         <v>1</v>
@@ -54943,13 +54943,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="130">
         <v>1</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D2" s="174">
         <v>1508949</v>
@@ -55016,19 +55016,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="129">
         <v>1</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D2" s="129">
         <v>1</v>
       </c>
       <c r="E2" s="200" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -55058,7 +55058,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="204" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D1" s="205"/>
       <c r="E1" s="205"/>
@@ -55234,7 +55234,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="126">
         <v>1</v>
@@ -55263,7 +55263,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B3" s="126">
         <v>1</v>
@@ -55292,7 +55292,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B4" s="126">
         <v>1</v>
@@ -55321,7 +55321,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B5" s="126">
         <v>1</v>
@@ -55350,7 +55350,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B6" s="126">
         <v>1</v>
@@ -55379,7 +55379,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B7" s="126">
         <v>1</v>
@@ -55408,7 +55408,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B8" s="126">
         <v>1</v>
@@ -55437,7 +55437,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="195" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B9" s="126">
         <v>1</v>
@@ -55561,10 +55561,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="196">
         <v>2056669</v>
@@ -55617,10 +55617,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B3" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C3" s="196">
         <v>2058335</v>
@@ -55673,10 +55673,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B4" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C4" s="196">
         <v>2060001</v>
@@ -55729,10 +55729,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B5" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5" s="196">
         <v>2061667</v>
@@ -55785,10 +55785,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B6" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C6" s="196">
         <v>2063333</v>
@@ -55841,10 +55841,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B7" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C7" s="196">
         <v>2064999</v>
@@ -55897,10 +55897,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B8" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C8" s="196">
         <v>2066665</v>
@@ -55953,10 +55953,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B9" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C9" s="196">
         <v>2068331</v>
@@ -56009,10 +56009,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B10" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C10" s="198">
         <v>2056669</v>
@@ -56065,10 +56065,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B11" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C11" s="198">
         <v>2058335</v>
@@ -56121,10 +56121,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B12" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C12" s="198">
         <v>2060001</v>
@@ -56177,10 +56177,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B13" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C13" s="198">
         <v>2061667</v>
@@ -56233,10 +56233,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B14" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C14" s="198">
         <v>2063333</v>
@@ -56289,10 +56289,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B15" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C15" s="198">
         <v>2064999</v>
@@ -56345,10 +56345,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B16" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C16" s="198">
         <v>2066665</v>
@@ -56401,10 +56401,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="178" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B17" s="183" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C17" s="198">
         <v>2068331</v>
@@ -56530,16 +56530,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="130">
         <v>1</v>
       </c>
       <c r="C2" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D2" s="179" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E2" s="129" t="s">
         <v>214</v>
@@ -56566,16 +56566,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B3" s="130">
         <v>1</v>
       </c>
       <c r="C3" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D3" s="179" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E3" s="129" t="s">
         <v>215</v>
@@ -56602,16 +56602,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B4" s="130">
         <v>1</v>
       </c>
       <c r="C4" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D4" s="179" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E4" s="129" t="s">
         <v>216</v>
@@ -56638,16 +56638,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B5" s="130">
         <v>1</v>
       </c>
       <c r="C5" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D5" s="179" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E5" s="129" t="s">
         <v>217</v>
@@ -56674,16 +56674,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B6" s="130">
         <v>1</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D6" s="179" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E6" s="129" t="s">
         <v>218</v>
@@ -56710,16 +56710,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B7" s="130">
         <v>1</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D7" s="179" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E7" s="129" t="s">
         <v>219</v>
@@ -56746,16 +56746,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B8" s="130">
         <v>1</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D8" s="179" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E8" s="129" t="s">
         <v>220</v>
@@ -56782,16 +56782,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B9" s="130">
         <v>1</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D9" s="179" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E9" s="129" t="s">
         <v>221</v>
@@ -56871,16 +56871,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="126">
         <v>2056669</v>
       </c>
       <c r="D2" s="130" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E2" s="130" t="b">
         <v>0</v>
@@ -56889,21 +56889,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="130" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="180" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C3" s="182">
         <v>2056669</v>
       </c>
       <c r="D3" s="181" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E3" s="181" t="b">
         <v>0</v>
@@ -56912,7 +56912,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="181" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -57513,10 +57513,10 @@
     </row>
     <row r="2" spans="1:20" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B2" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C2" s="165">
         <v>508949</v>
@@ -57529,7 +57529,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="165" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J2" s="166"/>
       <c r="K2" s="165">
@@ -57565,10 +57565,10 @@
     </row>
     <row r="3" spans="1:20" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B3" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C3" s="165">
         <v>508949</v>
@@ -57581,7 +57581,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J3" s="166"/>
       <c r="K3" s="165">
@@ -57716,7 +57716,7 @@
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2" s="187">
         <v>1508949</v>
@@ -57728,7 +57728,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="186" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F2" s="187">
         <v>1</v>
@@ -57737,7 +57737,7 @@
         <v>258</v>
       </c>
       <c r="H2" s="186" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I2" s="188">
         <v>26</v>
@@ -57772,7 +57772,7 @@
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B3" s="187">
         <v>1508949</v>
@@ -57784,7 +57784,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="186" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F3" s="187">
         <v>2</v>
@@ -57793,7 +57793,7 @@
         <v>258</v>
       </c>
       <c r="H3" s="186" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I3" s="188">
         <v>26</v>
@@ -57828,7 +57828,7 @@
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B4" s="187">
         <v>1508949</v>
@@ -57840,7 +57840,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="186" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F4" s="187">
         <v>3</v>
@@ -57849,7 +57849,7 @@
         <v>258</v>
       </c>
       <c r="H4" s="186" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I4" s="188">
         <v>26</v>
@@ -57884,7 +57884,7 @@
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B5" s="187">
         <v>1508949</v>
@@ -57896,7 +57896,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="186" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F5" s="187">
         <v>4</v>
@@ -57905,7 +57905,7 @@
         <v>258</v>
       </c>
       <c r="H5" s="186" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I5" s="188">
         <v>26</v>
@@ -57940,7 +57940,7 @@
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B6" s="187">
         <v>1508949</v>
@@ -57952,7 +57952,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="186" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F6" s="187">
         <v>5</v>
@@ -57961,7 +57961,7 @@
         <v>258</v>
       </c>
       <c r="H6" s="186" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I6" s="188">
         <v>26</v>
@@ -57996,7 +57996,7 @@
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B7" s="187">
         <v>1508949</v>
@@ -58008,7 +58008,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="186" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F7" s="187">
         <v>6</v>
@@ -58017,7 +58017,7 @@
         <v>258</v>
       </c>
       <c r="H7" s="186" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I7" s="188">
         <v>26</v>
@@ -58052,7 +58052,7 @@
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B8" s="187">
         <v>1508949</v>
@@ -58064,7 +58064,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F8" s="187">
         <v>7</v>
@@ -58073,7 +58073,7 @@
         <v>258</v>
       </c>
       <c r="H8" s="186" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I8" s="188">
         <v>26</v>
@@ -58108,7 +58108,7 @@
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B9" s="187">
         <v>1508949</v>
@@ -58120,7 +58120,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="186" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F9" s="187">
         <v>8</v>
@@ -58129,7 +58129,7 @@
         <v>258</v>
       </c>
       <c r="H9" s="186" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I9" s="188">
         <v>26</v>
@@ -60774,7 +60774,7 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="193" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -60807,10 +60807,10 @@
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="63" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F6" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -60827,7 +60827,7 @@
         <v>1100</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F7" s="152" t="s">
         <v>152</v>
@@ -60868,7 +60868,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -60941,7 +60941,7 @@
         <v>144</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F13" s="152" t="s">
         <v>230</v>
@@ -61042,7 +61042,7 @@
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -61056,13 +61056,13 @@
         <v>89</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E19" s="99" t="s">
         <v>133</v>
       </c>
       <c r="F19" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -61079,10 +61079,10 @@
         <v>-110</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F20" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -61099,7 +61099,7 @@
         <v>-106</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F21" s="152" t="s">
         <v>230</v>
@@ -61120,7 +61120,7 @@
       </c>
       <c r="E22" s="101"/>
       <c r="F22" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -61138,7 +61138,7 @@
       </c>
       <c r="E23" s="101"/>
       <c r="F23" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -61155,10 +61155,10 @@
         <v>-128</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F24" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -61175,10 +61175,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F25" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -61287,7 +61287,7 @@
         <v>145</v>
       </c>
       <c r="E31" s="101" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F31" s="152" t="s">
         <v>230</v>
@@ -61307,7 +61307,7 @@
         <v>145</v>
       </c>
       <c r="E32" s="101" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F32" s="152" t="s">
         <v>230</v>
@@ -61327,7 +61327,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="101" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F33" s="152" t="s">
         <v>230</v>
@@ -61560,7 +61560,7 @@
       </c>
       <c r="E45" s="99"/>
       <c r="F45" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -61643,7 +61643,7 @@
         <v>243</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D50" s="159" t="s">
         <v>248</v>
@@ -61682,11 +61682,11 @@
         <v>241</v>
       </c>
       <c r="D52" s="112" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E52" s="99"/>
       <c r="F52" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -61740,7 +61740,7 @@
       </c>
       <c r="E55" s="99"/>
       <c r="F55" s="184" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -62000,7 +62000,7 @@
       </c>
       <c r="E70" s="99"/>
       <c r="F70" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -62018,7 +62018,7 @@
       </c>
       <c r="E71" s="99"/>
       <c r="F71" s="152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -62224,10 +62224,10 @@
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>300</v>
@@ -62309,7 +62309,7 @@
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="145" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B4" s="145" t="s">
         <v>327</v>
@@ -62323,7 +62323,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="145" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B5" s="145" t="s">
         <v>328</v>
@@ -62337,7 +62337,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B6" s="145" t="s">
         <v>329</v>
@@ -62425,7 +62425,7 @@
         <v>-140</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F2" s="154" t="s">
         <v>229</v>
@@ -62445,7 +62445,7 @@
         <v>148</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F3" s="154" t="s">
         <v>229</v>
@@ -62456,19 +62456,19 @@
         <v>150</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C4" s="102" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E4" s="124" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
@@ -62485,7 +62485,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F5" s="154" t="s">
         <v>229</v>
@@ -62494,7 +62494,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="102" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C6" s="102" t="s">
         <v>347</v>
@@ -62510,7 +62510,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="102" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>348</v>
@@ -62526,17 +62526,17 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="102" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D8" s="102">
         <v>18</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -62545,13 +62545,13 @@
         <v>196</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D9" s="102">
         <v>1</v>
       </c>
       <c r="E9" s="124" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F9" s="154" t="s">
         <v>229</v>
@@ -62671,52 +62671,52 @@
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="98" t="s">
+      <c r="D6" s="98" t="s">
         <v>363</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="97" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C7" s="98"/>
       <c r="D7" s="97" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="97" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C8" s="98"/>
       <c r="D8" s="97" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="97" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C9" s="98"/>
       <c r="D9" s="97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
